--- a/main/input_3d.xlsx
+++ b/main/input_3d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF8CB7-C7DF-4D3A-A94D-C41CDE1BF1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24ACD0-B9B7-4E6F-92C3-B96364E2CA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>ForceX</t>
   </si>
@@ -189,10 +189,16 @@
     <t>Maximum move in optimality criterion process</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>PCL</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -582,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73A997-7B04-44B2-BBB4-C23AFDAA7229}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,10 +858,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>-1</v>
@@ -1051,7 +1057,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,20 +1098,28 @@
         <v>50</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/input_3d.xlsx
+++ b/main/input_3d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24ACD0-B9B7-4E6F-92C3-B96364E2CA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A22794-FB3C-4C3D-857D-8C17FAE45D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -189,10 +189,10 @@
     <t>Maximum move in optimality criterion process</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>PCL</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
   <si>
     <t>PLA</t>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
@@ -681,7 +681,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>25</v>
@@ -736,7 +736,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>29</v>
@@ -747,8 +747,8 @@
         <v>48</v>
       </c>
       <c r="B14" s="5">
-        <f>SQRT(3)</f>
-        <v>1.7320508075688772</v>
+        <f>3*SQRT(3)</f>
+        <v>5.196152422706632</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>26</v>
@@ -786,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73A997-7B04-44B2-BBB4-C23AFDAA7229}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2">
         <v>0.5</v>
@@ -1104,7 +1104,7 @@
         <v>0.19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
